--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1582780.916228179</v>
+        <v>1550499.512697297</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584558</v>
+        <v>6486630.97258456</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8419585.782537373</v>
+        <v>8419585.782537375</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>24.3917162906689</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>78.61516965029936</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>84.806281389885</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1508,7 +1508,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>161.357486673978</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.3789874741414</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>94.79299548590352</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>117.1331074526671</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>127.9189740658366</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>21.69126064627715</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>88.60275834422883</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.9169692637773</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>334.8489055611898</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>68.01917943385541</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>180.2518826854714</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.17808278470203</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>111.1444501463434</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>334.8300701162946</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>90.00849139184182</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>95.09008317442006</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2219,7 +2219,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V21" t="n">
-        <v>161.3574866739771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>111.2019796226323</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>200.1983439946923</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>23.54113548505069</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>60.187852314057</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3328844140846</v>
@@ -2496,7 +2496,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>269.5504528493757</v>
+        <v>192.7867454949535</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.293719886768253</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>100.2222907240587</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246471</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>25.44192183746162</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>50.62551772131024</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>367.840248073424</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>38.04960911936879</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554008</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.3531038845436</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>25.4419218374614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>294.9911370463884</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>24.20290275764845</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>65.15928918313422</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.76397372915818</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>14.14126883443659</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>38.3331989618944</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T36" t="n">
         <v>192.192932426668</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>127.0119810522499</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>111.1444501463434</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>192.9562230845941</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>355.2335031306166</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>134.2395953018575</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>74.10390382124638</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>31.06834469289129</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>126.7066250192821</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>188.749651232462</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>73.62611191793694</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874151</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>134.0525810952643</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>67.31621895147947</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>198.548936311532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>171.9453367232516</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627715</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246436</v>
@@ -4115,7 +4115,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V45" t="n">
-        <v>161.3574866739766</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>178.8252551272598</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
         <v>147.485201092913</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>170.1476202326849</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1660.314838232772</v>
+        <v>1393.59496062381</v>
       </c>
       <c r="C11" t="n">
-        <v>1660.314838232772</v>
+        <v>1024.632443683398</v>
       </c>
       <c r="D11" t="n">
-        <v>1635.67674096947</v>
+        <v>1024.632443683398</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>1024.632443683398</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816184</v>
+        <v>613.6465388937906</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>197.8826002418141</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
         <v>2002.031077317524</v>
@@ -5062,31 +5062,31 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T11" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U11" t="n">
-        <v>2364.843483837423</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="V11" t="n">
-        <v>2033.780596493852</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="W11" t="n">
-        <v>2033.780596493852</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="X11" t="n">
-        <v>1660.314838232772</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="Y11" t="n">
-        <v>1660.314838232772</v>
+        <v>1780.194800687932</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.575048691645</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M12" t="n">
-        <v>1411.972652940317</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.185219170622</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.870836884379</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646088</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2405.228535940266</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T12" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V12" t="n">
-        <v>1747.849964943219</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.5830114608493</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="C13" t="n">
-        <v>642.6468285329424</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="D13" t="n">
-        <v>492.5301891206067</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="E13" t="n">
-        <v>345.6827270255144</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F13" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G13" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
         <v>513.4770511394356</v>
@@ -5223,28 +5223,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1282.351261961867</v>
+        <v>1513.469867714115</v>
       </c>
       <c r="U13" t="n">
-        <v>993.2314762910891</v>
+        <v>1224.350082043337</v>
       </c>
       <c r="V13" t="n">
-        <v>993.2314762910891</v>
+        <v>969.6655938374497</v>
       </c>
       <c r="W13" t="n">
-        <v>993.2314762910891</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X13" t="n">
-        <v>993.2314762910891</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y13" t="n">
-        <v>993.2314762910891</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>994.8839425244953</v>
+        <v>1379.099573286212</v>
       </c>
       <c r="C14" t="n">
-        <v>876.5676723702861</v>
+        <v>1379.099573286212</v>
       </c>
       <c r="D14" t="n">
-        <v>876.5676723702861</v>
+        <v>1379.099573286212</v>
       </c>
       <c r="E14" t="n">
-        <v>876.5676723702861</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F14" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870199</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
@@ -5296,34 +5296,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U14" t="n">
-        <v>2111.257688031501</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="V14" t="n">
-        <v>2111.257688031501</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="W14" t="n">
-        <v>1758.489032761387</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="X14" t="n">
-        <v>1385.023274500307</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="Y14" t="n">
-        <v>994.8839425244953</v>
+        <v>1765.699413350334</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938164</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207014</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005705</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L15" t="n">
-        <v>963.5604006743116</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.958004922983</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N15" t="n">
-        <v>1698.170571153288</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.856188867045</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.111955628754</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
         <v>2354.581362957454</v>
@@ -5390,7 +5390,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
         <v>1697.202791960407</v>
@@ -5399,10 +5399,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>623.5760071085165</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="C16" t="n">
-        <v>623.5760071085165</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="D16" t="n">
-        <v>473.4593676961807</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="E16" t="n">
-        <v>473.4593676961807</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H16" t="n">
         <v>156.4714025375973</v>
@@ -5436,22 +5436,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1412.128928574975</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T16" t="n">
-        <v>1412.128928574975</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.631192873734</v>
+        <v>796.1400366611382</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.631192873734</v>
+        <v>627.5370374047975</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.214022836773</v>
+        <v>338.1198673678369</v>
       </c>
       <c r="X16" t="n">
-        <v>805.2244719387562</v>
+        <v>338.1198673678369</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.2244719387562</v>
+        <v>338.1198673678369</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1211.455325246016</v>
+        <v>1139.209591481948</v>
       </c>
       <c r="C17" t="n">
-        <v>842.4928083056043</v>
+        <v>770.247074541536</v>
       </c>
       <c r="D17" t="n">
-        <v>842.4928083056043</v>
+        <v>770.247074541536</v>
       </c>
       <c r="E17" t="n">
-        <v>456.70455570736</v>
+        <v>770.247074541536</v>
       </c>
       <c r="F17" t="n">
-        <v>456.70455570736</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240659</v>
@@ -5533,34 +5533,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T17" t="n">
         <v>2281.886707923823</v>
       </c>
       <c r="U17" t="n">
-        <v>2281.886707923823</v>
+        <v>2213.180466071444</v>
       </c>
       <c r="V17" t="n">
-        <v>1950.823820580252</v>
+        <v>1882.117578727873</v>
       </c>
       <c r="W17" t="n">
-        <v>1598.055165310138</v>
+        <v>1529.348923457759</v>
       </c>
       <c r="X17" t="n">
-        <v>1598.055165310138</v>
+        <v>1529.348923457759</v>
       </c>
       <c r="Y17" t="n">
-        <v>1598.055165310138</v>
+        <v>1139.209591481948</v>
       </c>
     </row>
     <row r="18">
@@ -5579,58 +5579,58 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>550.7659925046443</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L18" t="n">
-        <v>838.7302756873069</v>
+        <v>701.7398160318588</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.127879935978</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.340446166283</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232467</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2317.569511939839</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
         <v>1515.130183187204</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1649.933487006657</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C19" t="n">
-        <v>1649.933487006657</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D19" t="n">
-        <v>1649.933487006657</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E19" t="n">
-        <v>1502.020393424264</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F19" t="n">
-        <v>1355.130445926354</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G19" t="n">
-        <v>1187.117431366672</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H19" t="n">
-        <v>1038.14248076777</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I19" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J19" t="n">
-        <v>955.1183582849494</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K19" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O19" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>2422.024696147522</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>2422.024696147522</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>2422.024696147522</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>2422.024696147522</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V19" t="n">
-        <v>2167.340207941635</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="W19" t="n">
-        <v>1877.923037904675</v>
+        <v>1496.953246844984</v>
       </c>
       <c r="X19" t="n">
-        <v>1649.933487006657</v>
+        <v>1268.963695946966</v>
       </c>
       <c r="Y19" t="n">
-        <v>1649.933487006657</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.277132615363</v>
+        <v>1641.70107205378</v>
       </c>
       <c r="C20" t="n">
-        <v>1689.277132615363</v>
+        <v>1303.488880017119</v>
       </c>
       <c r="D20" t="n">
-        <v>1331.011434008613</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="E20" t="n">
-        <v>945.2231814103684</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="F20" t="n">
-        <v>534.2372766207609</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G20" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J20" t="n">
         <v>181.1756535819833</v>
@@ -5758,46 +5758,46 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549154</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
         <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U20" t="n">
-        <v>2111.257688031501</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="V20" t="n">
-        <v>1780.194800687931</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="W20" t="n">
-        <v>1689.277132615363</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="X20" t="n">
-        <v>1689.277132615363</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="Y20" t="n">
-        <v>1689.277132615363</v>
+        <v>2028.300912117902</v>
       </c>
     </row>
     <row r="21">
@@ -5816,67 +5816,67 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J21" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>550.7659925046443</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L21" t="n">
-        <v>838.7302756873069</v>
+        <v>701.7398160318588</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.127879935978</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N21" t="n">
-        <v>1810.623512928666</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.281785090958</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.537551852667</v>
+        <v>2317.569511939839</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.488907158875</v>
+        <v>663.6736923492481</v>
       </c>
       <c r="C22" t="n">
-        <v>931.488907158875</v>
+        <v>494.7375094213412</v>
       </c>
       <c r="D22" t="n">
-        <v>931.488907158875</v>
+        <v>344.6208700090055</v>
       </c>
       <c r="E22" t="n">
-        <v>931.488907158875</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849494</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>2387.114261342225</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>2190.022821712274</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>1966.930900562089</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U22" t="n">
-        <v>1677.811114891311</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V22" t="n">
-        <v>1423.126626685424</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.709456648463</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X22" t="n">
-        <v>931.488907158875</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.488907158875</v>
+        <v>775.9989242913009</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1179.362164426563</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="C23" t="n">
-        <v>810.3996474861515</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="D23" t="n">
-        <v>810.3996474861515</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="E23" t="n">
-        <v>424.6113948879072</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="F23" t="n">
-        <v>424.6113948879072</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G23" t="n">
-        <v>424.6113948879072</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209945</v>
       </c>
       <c r="K23" t="n">
-        <v>430.258249938214</v>
+        <v>437.3637422189599</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131804</v>
+        <v>781.4474136939264</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
         <v>2010.609319556535</v>
@@ -6010,31 +6010,31 @@
         <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2540.750019615989</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2540.750019615989</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>2287.164223810067</v>
+        <v>2294.728395418847</v>
       </c>
       <c r="V23" t="n">
-        <v>1956.101336466497</v>
+        <v>2294.728395418847</v>
       </c>
       <c r="W23" t="n">
-        <v>1956.101336466497</v>
+        <v>1941.959740148733</v>
       </c>
       <c r="X23" t="n">
-        <v>1956.101336466497</v>
+        <v>1568.493981887653</v>
       </c>
       <c r="Y23" t="n">
-        <v>1565.962004490685</v>
+        <v>1568.493981887653</v>
       </c>
     </row>
     <row r="24">
@@ -6050,61 +6050,61 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>290.4181578204567</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L24" t="n">
-        <v>925.1390715466765</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M24" t="n">
-        <v>1280.536675795348</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.749242025653</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004221</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2430.764101559352</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.7582480802632</v>
+        <v>666.3082770402796</v>
       </c>
       <c r="C25" t="n">
-        <v>621.8220651523563</v>
+        <v>666.3082770402796</v>
       </c>
       <c r="D25" t="n">
-        <v>621.8220651523563</v>
+        <v>516.1916376279438</v>
       </c>
       <c r="E25" t="n">
-        <v>621.8220651523563</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="F25" t="n">
-        <v>474.932117654446</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9191030947646</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H25" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
         <v>74.92003001304161</v>
@@ -6174,25 +6174,25 @@
         <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1506.915933070317</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T25" t="n">
-        <v>1283.824011920133</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="U25" t="n">
-        <v>1011.550827223793</v>
+        <v>1115.090407081827</v>
       </c>
       <c r="V25" t="n">
-        <v>1011.550827223793</v>
+        <v>1115.090407081827</v>
       </c>
       <c r="W25" t="n">
-        <v>1011.550827223793</v>
+        <v>1115.090407081827</v>
       </c>
       <c r="X25" t="n">
-        <v>1011.550827223793</v>
+        <v>887.1008561838097</v>
       </c>
       <c r="Y25" t="n">
-        <v>790.7582480802632</v>
+        <v>666.3082770402796</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>521.4877329223877</v>
+        <v>1254.688228114106</v>
       </c>
       <c r="C26" t="n">
-        <v>152.525215981976</v>
+        <v>1254.688228114106</v>
       </c>
       <c r="D26" t="n">
-        <v>152.525215981976</v>
+        <v>1254.688228114106</v>
       </c>
       <c r="E26" t="n">
-        <v>152.525215981976</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F26" t="n">
-        <v>152.525215981976</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G26" t="n">
-        <v>152.525215981976</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
         <v>182.6484035402487</v>
@@ -6232,46 +6232,46 @@
         <v>430.258249938214</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131804</v>
+        <v>846.506669368179</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N26" t="n">
-        <v>1621.826371324918</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.524205837086</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.524205837086</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V26" t="n">
-        <v>2024.461318493515</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W26" t="n">
-        <v>1671.692663223401</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="X26" t="n">
-        <v>1298.226904962321</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="Y26" t="n">
-        <v>908.0875729865095</v>
+        <v>1254.688228114106</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C27" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125362</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070807</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339657</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033213</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915385</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>192.7415585031272</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K27" t="n">
-        <v>634.2717485637554</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L27" t="n">
-        <v>922.236031746418</v>
+        <v>925.1390715466766</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.63363599509</v>
+        <v>1280.536675795348</v>
       </c>
       <c r="N27" t="n">
-        <v>1656.846202225394</v>
+        <v>1659.749242025653</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.531819939152</v>
+        <v>1984.43485973941</v>
       </c>
       <c r="P27" t="n">
-        <v>2222.787586700861</v>
+        <v>2453.175049765931</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T27" t="n">
         <v>2234.084585692265</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1644.681179439615</v>
+        <v>1088.787981074992</v>
       </c>
       <c r="C28" t="n">
-        <v>1475.744996511708</v>
+        <v>919.8517981470852</v>
       </c>
       <c r="D28" t="n">
-        <v>1325.628357099373</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E28" t="n">
-        <v>1177.71526351698</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F28" t="n">
-        <v>1030.825316019069</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G28" t="n">
-        <v>1005.126405072138</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H28" t="n">
-        <v>1005.126405072138</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>2564.528944348363</v>
+        <v>1559.55623157601</v>
       </c>
       <c r="T28" t="n">
-        <v>2564.528944348363</v>
+        <v>1559.55623157601</v>
       </c>
       <c r="U28" t="n">
-        <v>2564.528944348363</v>
+        <v>1270.436445905232</v>
       </c>
       <c r="V28" t="n">
-        <v>2564.528944348363</v>
+        <v>1270.436445905232</v>
       </c>
       <c r="W28" t="n">
-        <v>2275.111774311402</v>
+        <v>1270.436445905232</v>
       </c>
       <c r="X28" t="n">
-        <v>2047.122223413385</v>
+        <v>1270.436445905232</v>
       </c>
       <c r="Y28" t="n">
-        <v>1826.329644269855</v>
+        <v>1270.436445905232</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1975.890447433488</v>
+        <v>1288.276051449673</v>
       </c>
       <c r="C29" t="n">
-        <v>1606.927930493076</v>
+        <v>1288.276051449673</v>
       </c>
       <c r="D29" t="n">
-        <v>1606.927930493076</v>
+        <v>1288.276051449673</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.139677894832</v>
+        <v>902.487798851429</v>
       </c>
       <c r="F29" t="n">
-        <v>810.1537731052242</v>
+        <v>491.5018940618215</v>
       </c>
       <c r="G29" t="n">
-        <v>394.3898344532477</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H29" t="n">
-        <v>89.72452749239028</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
         <v>182.6484035402487</v>
@@ -6469,10 +6469,10 @@
         <v>430.258249938214</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131804</v>
+        <v>846.506669368179</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153922</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N29" t="n">
         <v>1686.885626999171</v>
@@ -6484,31 +6484,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T29" t="n">
-        <v>2229.476243239409</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.890447433488</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V29" t="n">
-        <v>1975.890447433488</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="W29" t="n">
-        <v>1975.890447433488</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="X29" t="n">
-        <v>1975.890447433488</v>
+        <v>2065.015223489607</v>
       </c>
       <c r="Y29" t="n">
-        <v>1975.890447433488</v>
+        <v>1674.875891513795</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G30" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915348</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204567</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L30" t="n">
-        <v>578.3824410031193</v>
+        <v>922.2360317464185</v>
       </c>
       <c r="M30" t="n">
-        <v>1213.103354729339</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N30" t="n">
-        <v>1847.824268455559</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O30" t="n">
-        <v>2172.509886169316</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.765652931025</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q30" t="n">
         <v>2542.117996141784</v>
@@ -6569,16 +6569,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.1464423075133</v>
+        <v>136.4957343259002</v>
       </c>
       <c r="C31" t="n">
-        <v>496.2102593796064</v>
+        <v>136.4957343259002</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0936199672707</v>
+        <v>136.4957343259002</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1805263848776</v>
+        <v>136.4957343259002</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696726</v>
+        <v>136.4957343259002</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
         <v>74.92003001304161</v>
@@ -6648,25 +6648,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163192</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163192</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V31" t="n">
-        <v>1584.994207216261</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W31" t="n">
-        <v>1295.577037179301</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.587486281283</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.7949071377531</v>
+        <v>136.4957343259002</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2177.929104284241</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="C32" t="n">
-        <v>1808.966587343829</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D32" t="n">
-        <v>1450.700888737079</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
-        <v>1064.912636138835</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9267313492271</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
-        <v>355.9558858478247</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H32" t="n">
         <v>51.29057888696726</v>
@@ -6718,34 +6718,34 @@
         <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="W32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="X32" t="n">
-        <v>2564.528944348363</v>
+        <v>2040.567846966729</v>
       </c>
       <c r="Y32" t="n">
-        <v>2564.528944348363</v>
+        <v>1650.428514990917</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>199.0537956496649</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>378.7634010678403</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L33" t="n">
-        <v>666.7276842505029</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.125288499175</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1656.846202225394</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1389.996691233729</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="C34" t="n">
-        <v>1221.060508305822</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="D34" t="n">
-        <v>1070.943868893486</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="E34" t="n">
-        <v>1005.126405072138</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="F34" t="n">
-        <v>1005.126405072138</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="G34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T34" t="n">
-        <v>2564.528944348363</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U34" t="n">
-        <v>2564.528944348363</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V34" t="n">
-        <v>2309.844456142476</v>
+        <v>843.7969231363421</v>
       </c>
       <c r="W34" t="n">
-        <v>2020.427286105516</v>
+        <v>554.3797530993816</v>
       </c>
       <c r="X34" t="n">
-        <v>1792.437735207498</v>
+        <v>326.3902022013642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1571.645156063968</v>
+        <v>105.5976230578341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1588.10431179749</v>
+        <v>1935.983748869799</v>
       </c>
       <c r="C35" t="n">
-        <v>1219.141794857079</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="D35" t="n">
-        <v>860.8760962503281</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="E35" t="n">
-        <v>475.0878436520839</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F35" t="n">
-        <v>64.10193886247635</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870201</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H35" t="n">
         <v>49.81782892870201</v>
@@ -6937,13 +6937,13 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
@@ -6970,19 +6970,19 @@
         <v>2364.843483837424</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.843483837424</v>
+        <v>2326.123080845611</v>
       </c>
       <c r="V35" t="n">
-        <v>2364.843483837424</v>
+        <v>2326.123080845611</v>
       </c>
       <c r="W35" t="n">
-        <v>2364.843483837424</v>
+        <v>2326.123080845611</v>
       </c>
       <c r="X35" t="n">
-        <v>2364.843483837424</v>
+        <v>2326.123080845611</v>
       </c>
       <c r="Y35" t="n">
-        <v>1974.704151861612</v>
+        <v>1935.983748869799</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621915</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L36" t="n">
-        <v>576.9096910448541</v>
+        <v>1056.575048691646</v>
       </c>
       <c r="M36" t="n">
-        <v>1193.405324037542</v>
+        <v>1411.972652940318</v>
       </c>
       <c r="N36" t="n">
-        <v>1572.617890267846</v>
+        <v>1791.185219170623</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.281785090959</v>
+        <v>2115.87083688438</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852668</v>
+        <v>2357.126603646089</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957455</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.315231116727</v>
+        <v>534.6801199986835</v>
       </c>
       <c r="C37" t="n">
-        <v>918.37904818882</v>
+        <v>365.7439370707766</v>
       </c>
       <c r="D37" t="n">
-        <v>768.2624087764842</v>
+        <v>365.7439370707766</v>
       </c>
       <c r="E37" t="n">
-        <v>620.3493151940911</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
         <v>513.4770511394356</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204927</v>
+        <v>1480.925437849119</v>
       </c>
       <c r="T37" t="n">
-        <v>1609.220368204927</v>
+        <v>1480.925437849119</v>
       </c>
       <c r="U37" t="n">
-        <v>1609.220368204927</v>
+        <v>1191.80565217834</v>
       </c>
       <c r="V37" t="n">
-        <v>1609.220368204927</v>
+        <v>937.1211639724534</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.953246844984</v>
+        <v>937.1211639724534</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.963695946966</v>
+        <v>937.1211639724534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1268.963695946966</v>
+        <v>716.3285848289232</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1204.857684923304</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.857684923304</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="D38" t="n">
-        <v>846.5919863165539</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183096</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870202</v>
+        <v>838.9025835816185</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870202</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870202</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085909</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317526</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
         <v>2299.347327962851</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435101</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U38" t="n">
-        <v>2295.986170592077</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V38" t="n">
-        <v>1964.923283248506</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.923283248506</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="X38" t="n">
-        <v>1591.457524987426</v>
+        <v>1197.724303915575</v>
       </c>
       <c r="Y38" t="n">
-        <v>1591.457524987426</v>
+        <v>838.9025835816185</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450558</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088825</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J39" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621915</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L39" t="n">
-        <v>576.9096910448541</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M39" t="n">
-        <v>1193.405324037542</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.900957030229</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.281785090959</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852668</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q39" t="n">
         <v>2490.891446435101</v>
@@ -7283,7 +7283,7 @@
         <v>2354.581362957455</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U39" t="n">
         <v>1932.354900192151</v>
@@ -7292,13 +7292,13 @@
         <v>1697.202791960408</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X39" t="n">
         <v>1235.113935026674</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>368.8706512689447</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="C40" t="n">
-        <v>199.9344683410378</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D40" t="n">
-        <v>49.81782892870202</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E40" t="n">
-        <v>49.81782892870202</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F40" t="n">
-        <v>49.81782892870202</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870202</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870202</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J40" t="n">
         <v>73.44728005477636</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S40" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T40" t="n">
-        <v>1577.838201848471</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U40" t="n">
-        <v>1288.718416177692</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="V40" t="n">
-        <v>1288.718416177692</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="W40" t="n">
-        <v>999.3012461407319</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="X40" t="n">
-        <v>771.3116952427146</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="Y40" t="n">
-        <v>550.5191160991844</v>
+        <v>993.2314762910891</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1181.232979331143</v>
+        <v>2362.904956516632</v>
       </c>
       <c r="C41" t="n">
-        <v>1181.232979331143</v>
+        <v>1993.942439576221</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.232979331143</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="E41" t="n">
-        <v>1181.232979331143</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F41" t="n">
-        <v>770.247074541536</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G41" t="n">
-        <v>354.4831358895594</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870202</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L41" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240659</v>
@@ -7435,28 +7435,28 @@
         <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T41" t="n">
-        <v>2174.187270471301</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U41" t="n">
-        <v>1920.601474665379</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V41" t="n">
-        <v>1920.601474665379</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="W41" t="n">
-        <v>1567.832819395265</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="X41" t="n">
-        <v>1567.832819395265</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="Y41" t="n">
-        <v>1567.832819395265</v>
+        <v>2490.891446435099</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.138299241652</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C42" t="n">
-        <v>684.685269960525</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992738</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938183</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450558</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088825</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K42" t="n">
-        <v>413.7755328491962</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L42" t="n">
-        <v>701.7398160318588</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.235449024546</v>
+        <v>932.3072952935256</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.185219170623</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.87083688438</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646089</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228522</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>473.4593676961807</v>
+        <v>332.1144239975864</v>
       </c>
       <c r="C43" t="n">
-        <v>473.4593676961807</v>
+        <v>332.1144239975864</v>
       </c>
       <c r="D43" t="n">
-        <v>473.4593676961807</v>
+        <v>332.1144239975864</v>
       </c>
       <c r="E43" t="n">
-        <v>473.4593676961807</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F43" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G43" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H43" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
         <v>513.4770511394356</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1085.259822331916</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U43" t="n">
-        <v>796.1400366611377</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V43" t="n">
-        <v>541.4555484552509</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W43" t="n">
-        <v>473.4593676961807</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X43" t="n">
-        <v>473.4593676961807</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="Y43" t="n">
-        <v>473.4593676961807</v>
+        <v>332.1144239975864</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1030.320731781481</v>
+        <v>1219.912802317494</v>
       </c>
       <c r="C44" t="n">
-        <v>661.3582148410692</v>
+        <v>1219.912802317494</v>
       </c>
       <c r="D44" t="n">
-        <v>661.3582148410692</v>
+        <v>1219.912802317494</v>
       </c>
       <c r="E44" t="n">
-        <v>460.8037337183096</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870199</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870199</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870199</v>
@@ -7654,13 +7654,13 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317524</v>
@@ -7675,25 +7675,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435099</v>
+        <v>2191.161325531108</v>
       </c>
       <c r="U44" t="n">
-        <v>2490.891446435099</v>
+        <v>1937.575529725186</v>
       </c>
       <c r="V44" t="n">
-        <v>2159.828559091528</v>
+        <v>1606.512642381615</v>
       </c>
       <c r="W44" t="n">
-        <v>1807.059903821414</v>
+        <v>1606.512642381615</v>
       </c>
       <c r="X44" t="n">
-        <v>1807.059903821414</v>
+        <v>1606.512642381615</v>
       </c>
       <c r="Y44" t="n">
-        <v>1416.920571845603</v>
+        <v>1606.512642381615</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H45" t="n">
         <v>71.33540390088821</v>
@@ -7763,16 +7763,16 @@
         <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>453.3594467188924</v>
+        <v>918.37904818882</v>
       </c>
       <c r="C46" t="n">
-        <v>453.3594467188924</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D46" t="n">
-        <v>453.3594467188924</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E46" t="n">
-        <v>305.4463531364993</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F46" t="n">
-        <v>305.4463531364993</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G46" t="n">
         <v>305.4463531364993</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1282.351261961867</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U46" t="n">
-        <v>1282.351261961867</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V46" t="n">
-        <v>1027.66677375598</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="W46" t="n">
-        <v>855.8004906926623</v>
+        <v>1319.803198167966</v>
       </c>
       <c r="X46" t="n">
-        <v>855.8004906926623</v>
+        <v>1319.803198167966</v>
       </c>
       <c r="Y46" t="n">
-        <v>635.0079115491321</v>
+        <v>1099.010619024436</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140161</v>
       </c>
       <c r="L12" t="n">
-        <v>93.95418991649882</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140147</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.5915113372854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>32.6052589418457</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>62.59397970992842</v>
       </c>
       <c r="R18" t="n">
         <v>22.88434839053379</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165478</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.002681261146563</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>62.59397970992842</v>
       </c>
       <c r="R21" t="n">
         <v>22.88434839053379</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930046306</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>7.177264930045965</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7822457220313</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>166.8478747195277</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>72.8936848030288</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>7.177264930045908</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>82.86162232408674</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>350.2592227712701</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>229.7822457220321</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>72.8936848030288</v>
       </c>
       <c r="M29" t="n">
-        <v>72.89368480302835</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>221.235823996257</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.17015012962219</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>72.89368480302829</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>7.177264930045709</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>89.23761944180157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>93.95418991649973</v>
       </c>
       <c r="M36" t="n">
-        <v>263.735382569713</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>243.4124011205611</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>263.7353825697131</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165482</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.732535704013344</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>116.5915113372863</v>
       </c>
       <c r="R39" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>263.7353825697131</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>94.68404435936571</v>
+        <v>188.6850150503358</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>330.291325330014</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>223.0034842409495</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.1407012529839</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>71.4431004754473</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.054975172427817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
         <v>105.5870378728063</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>126.0680064527793</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>248.1397843183405</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>254.0113960064252</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>71.44310047544869</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>197.6258294698416</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>85.22067406005073</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>76.75739370426686</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>183.0307584140068</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.561330457244</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
         <v>195.1205252336517</v>
@@ -23949,10 +23949,10 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>175.3785481902476</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>30.44282165471293</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>259.2324773255712</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>71.44310047544728</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>68.630000559305</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>25.51131139434489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>101.2463474866494</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>190.8620855338052</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>16.67813496469472</v>
+        <v>93.44184231911697</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6366501854935</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>201.3963631671902</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>140.890962576623</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>144.4950075123415</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>43.76605119203271</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>29.91934483031284</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>81.97978052954099</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -24888,22 +24888,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>226.6957214863666</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>116.6151622190683</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
         <v>67.96895394968163</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>226.8470350902138</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>81.27467346343495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>112.5689106849264</v>
       </c>
       <c r="H34" t="n">
         <v>147.485201092913</v>
@@ -25128,10 +25128,10 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.4650304310201</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968163</v>
@@ -25210,7 +25210,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>212.7167388859678</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.140701252983</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>68.10854418140183</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>175.3785481902476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>58.09371476326814</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>31.00443552543703</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.44310047544684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>93.14291727738146</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>189.7926572457915</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>256.0272166441985</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>18.16503989370247</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>71.44310047544694</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.14070125298432</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>12.38138155130483</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>219.2067793851115</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>183.3814337607298</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>34.96935440291287</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>71.44310047544869</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.006725054677474</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>116.3753781039061</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651394.7606748156</v>
+        <v>651394.7606748159</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651394.7606748156</v>
+        <v>651394.7606748159</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664103.8336641084</v>
+        <v>664103.8336641086</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664103.8336641083</v>
+        <v>664103.8336641084</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664103.8336641083</v>
+        <v>664103.8336641084</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664103.8336641084</v>
+        <v>664103.8336641083</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651394.7606748159</v>
+        <v>651394.7606748157</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651394.7606748161</v>
+        <v>651394.7606748159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651394.7606748159</v>
+        <v>651394.7606748156</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.4371019269</v>
+      </c>
+      <c r="C2" t="n">
         <v>573493.437101927</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>573493.4371019269</v>
       </c>
-      <c r="D2" t="n">
-        <v>573493.4371019268</v>
-      </c>
       <c r="E2" t="n">
-        <v>421649.7197352587</v>
+        <v>421649.7197352588</v>
       </c>
       <c r="F2" t="n">
-        <v>421649.7197352587</v>
+        <v>421649.7197352588</v>
       </c>
       <c r="G2" t="n">
         <v>421649.7197352588</v>
@@ -26334,16 +26334,16 @@
         <v>421649.7197352588</v>
       </c>
       <c r="I2" t="n">
+        <v>427750.960515862</v>
+      </c>
+      <c r="J2" t="n">
+        <v>427750.960515862</v>
+      </c>
+      <c r="K2" t="n">
         <v>427750.9605158622</v>
       </c>
-      <c r="J2" t="n">
-        <v>427750.9605158621</v>
-      </c>
-      <c r="K2" t="n">
-        <v>427750.9605158619</v>
-      </c>
       <c r="L2" t="n">
-        <v>427750.9605158621</v>
+        <v>427750.960515862</v>
       </c>
       <c r="M2" t="n">
         <v>421649.7197352588</v>
@@ -26352,7 +26352,7 @@
         <v>421649.7197352588</v>
       </c>
       <c r="O2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352585</v>
       </c>
       <c r="P2" t="n">
         <v>421649.7197352588</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.579376124</v>
+        <v>924651.5793761241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.117980921513084e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648227</v>
+        <v>4895.439270648196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468587</v>
+        <v>150597.338246859</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840986</v>
       </c>
       <c r="F4" t="n">
         <v>19428.11537840984</v>
       </c>
       <c r="G4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840987</v>
       </c>
       <c r="H4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840987</v>
       </c>
       <c r="I4" t="n">
-        <v>22998.66674111658</v>
+        <v>22998.66674111661</v>
       </c>
       <c r="J4" t="n">
-        <v>22998.66674111658</v>
+        <v>22998.66674111661</v>
       </c>
       <c r="K4" t="n">
-        <v>22998.66674111658</v>
+        <v>22998.66674111661</v>
       </c>
       <c r="L4" t="n">
         <v>22998.66674111658</v>
       </c>
       <c r="M4" t="n">
-        <v>19428.11537840991</v>
+        <v>19428.11537840987</v>
       </c>
       <c r="N4" t="n">
-        <v>19428.11537840994</v>
+        <v>19428.11537840986</v>
       </c>
       <c r="O4" t="n">
-        <v>19428.11537840987</v>
+        <v>19428.11537840985</v>
       </c>
       <c r="P4" t="n">
         <v>19428.11537840984</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26508,7 +26508,7 @@
         <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="P5" t="n">
         <v>57906.41050425673</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108967.3276592511</v>
+        <v>108923.1918805699</v>
       </c>
       <c r="C6" t="n">
-        <v>108967.327659251</v>
+        <v>108923.19188057</v>
       </c>
       <c r="D6" t="n">
-        <v>108967.3276592509</v>
+        <v>108923.1918805699</v>
       </c>
       <c r="E6" t="n">
-        <v>-580336.3855235318</v>
+        <v>-585803.5112081654</v>
       </c>
       <c r="F6" t="n">
-        <v>344315.1938525921</v>
+        <v>338848.0681679586</v>
       </c>
       <c r="G6" t="n">
-        <v>344315.1938525922</v>
+        <v>338848.0681679588</v>
       </c>
       <c r="H6" t="n">
-        <v>344315.1938525921</v>
+        <v>338848.0681679586</v>
       </c>
       <c r="I6" t="n">
-        <v>340831.154031559</v>
+        <v>335581.9298033754</v>
       </c>
       <c r="J6" t="n">
-        <v>345726.5933022072</v>
+        <v>340477.3690740236</v>
       </c>
       <c r="K6" t="n">
-        <v>345726.593302207</v>
+        <v>340477.3690740237</v>
       </c>
       <c r="L6" t="n">
-        <v>345726.5933022072</v>
+        <v>340477.3690740236</v>
       </c>
       <c r="M6" t="n">
-        <v>193717.8556057334</v>
+        <v>188250.7299210996</v>
       </c>
       <c r="N6" t="n">
-        <v>344315.1938525921</v>
+        <v>338848.0681679586</v>
       </c>
       <c r="O6" t="n">
-        <v>344315.1938525921</v>
+        <v>338848.0681679584</v>
       </c>
       <c r="P6" t="n">
-        <v>344315.1938525923</v>
+        <v>338848.0681679586</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074874</v>
@@ -26770,10 +26770,10 @@
         <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="O3" t="n">
         <v>919.4890146074873</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="F4" t="n">
         <v>622.7228616087749</v>
       </c>
-      <c r="F4" t="n">
-        <v>622.7228616087748</v>
-      </c>
       <c r="G4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
@@ -26825,10 +26825,10 @@
         <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087748</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.197460381959111e-14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.143601293926755e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831584</v>
+        <v>18.40937447831573</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304583</v>
+        <v>604.3134871304594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.143601293926755e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
         <v>37.85614822451829</v>
@@ -31761,40 +31761,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M11" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U11" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
@@ -31849,13 +31849,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N12" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
         <v>377.6671011130263</v>
@@ -31870,7 +31870,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,7 +31925,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
@@ -31937,7 +31937,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
@@ -31946,13 +31946,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T15" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
         <v>37.85614822451829</v>
@@ -33657,40 +33657,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
@@ -33745,13 +33745,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N36" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
         <v>377.6671011130263</v>
@@ -33766,7 +33766,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33812,7 +33812,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
@@ -33821,7 +33821,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
         <v>259.9139193258508</v>
@@ -33833,7 +33833,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
@@ -33842,13 +33842,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
         <v>37.85614822451829</v>
@@ -33894,40 +33894,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
@@ -33982,13 +33982,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N39" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
         <v>377.6671011130263</v>
@@ -34003,7 +34003,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34049,7 +34049,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
@@ -34058,7 +34058,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
         <v>259.9139193258508</v>
@@ -34070,7 +34070,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
@@ -34079,13 +34079,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013591</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
         <v>84.23258661454521</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703316</v>
+        <v>352.504314571769</v>
       </c>
       <c r="L12" t="n">
-        <v>384.8272032323196</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
         <v>383.0429961922271</v>
@@ -35509,10 +35509,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35579,13 +35579,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
         <v>52.68079795403621</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717677</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.070192733682</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158208</v>
@@ -35977,13 +35977,13 @@
         <v>383.0429961922271</v>
       </c>
       <c r="O18" t="n">
-        <v>360.5705293597821</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>175.072661106325</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158208</v>
@@ -36211,16 +36211,16 @@
         <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>330.967951679083</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963966</v>
+        <v>175.072661106325</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969972</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575408</v>
@@ -36372,7 +36372,7 @@
         <v>430.1516543891398</v>
       </c>
       <c r="O23" t="n">
-        <v>399.8873136488509</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
         <v>300.319445096288</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
         <v>358.9874790390623</v>
@@ -36451,16 +36451,16 @@
         <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7475161399677</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>243.6926936986961</v>
+        <v>410.5405684182238</v>
       </c>
       <c r="Q24" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>250.1109559575408</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161277</v>
+        <v>420.4529489191565</v>
       </c>
       <c r="M26" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3289193191857</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O26" t="n">
         <v>392.710048718805</v>
@@ -36618,7 +36618,7 @@
         <v>176.8680561605025</v>
       </c>
       <c r="R26" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>142.8797773900605</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158208</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M27" t="n">
         <v>358.9874790390623</v>
@@ -36691,13 +36691,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>243.6926936986961</v>
+        <v>473.4749394207282</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>250.1109559575408</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161277</v>
+        <v>420.4529489191565</v>
       </c>
       <c r="M29" t="n">
-        <v>491.6096643845877</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891398</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.524853957753</v>
+        <v>402.76067795401</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179364</v>
@@ -36931,7 +36931,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.6488315260188</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
         <v>22.63732142078703</v>
@@ -37086,13 +37086,13 @@
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2131298993163</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605025</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722501</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.2557745077754</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>534.7461587328644</v>
       </c>
       <c r="M33" t="n">
         <v>358.9874790390623</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
         <v>327.9652704179364</v>
@@ -37171,7 +37171,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891411</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>384.8272032323205</v>
       </c>
       <c r="M36" t="n">
-        <v>622.7228616087751</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N36" t="n">
         <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>571.3776715384975</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P36" t="n">
         <v>243.6926936986961</v>
@@ -37408,7 +37408,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37475,13 +37475,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
         <v>52.68079795403621</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891416</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>622.7228616087752</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087752</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>331.6978061219497</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>229.0701927336829</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37712,13 +37712,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
         <v>52.68079795403621</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575407</v>
@@ -37803,7 +37803,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722697</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K42" t="n">
         <v>181.524853957753</v>
@@ -37867,22 +37867,22 @@
         <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>622.7228616087752</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>477.7270405515928</v>
+        <v>571.7280112425628</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q42" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1550499.512697297</v>
+        <v>1577964.856662299</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.97258456</v>
+        <v>6486630.972584563</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>78.61516965029936</v>
+        <v>289.166374416171</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -1423,7 +1423,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
         <v>251.0499378478622</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1508,7 +1508,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
-        <v>161.357486673978</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>94.79299548590352</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>80.89940914345055</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>128.5789528195174</v>
       </c>
       <c r="E14" t="n">
-        <v>127.9189740658366</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>42.99365986874195</v>
+        <v>21.69126064627849</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.113431712101603</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>166.9169692637773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>155.2950059081302</v>
       </c>
       <c r="U17" t="n">
-        <v>68.01917943385541</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.50388216742162</v>
+        <v>63.50388216742208</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>53.76397372915886</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.1444501463434</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>334.8300701162946</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>97.89058100700188</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.09008317442006</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.2019796226323</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>79.01292969492806</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>60.187852314057</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>333.3890303357191</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8112657109832</v>
+        <v>225.8112657109831</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>58.89268120833344</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>192.7867454949535</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>3.293719886768253</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>210.3718522815838</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246471</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>37.57999557063082</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>50.62551772131024</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>367.840248073424</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>7.793176378947989</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246427</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>23.61037617415872</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>84.3531038845436</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>24.20290275764845</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>206.7860553905679</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>53.76397372915818</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>127.0159036753218</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>387.9991864684833</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
@@ -3319,10 +3319,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>38.3331989618944</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.50388216742162</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T36" t="n">
         <v>192.192932426668</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>127.0119810522499</v>
+        <v>94.79299548590397</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>351.531704964214</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>355.2335031306166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>42.99365986874283</v>
+        <v>21.69126064627761</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>74.10390382124638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>203.4411157162997</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>126.7066250192821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>171.5696484856221</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874151</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>180.2518826854714</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>134.0525810952643</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>164.4785769575782</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>82.00549416136161</v>
       </c>
       <c r="T44" t="n">
-        <v>171.9453367232516</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>76.00196508919049</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>21.69126064627715</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>178.8252551272598</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,7 +4152,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>220.5119373279696</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1393.59496062381</v>
+        <v>1184.590222112533</v>
       </c>
       <c r="C11" t="n">
-        <v>1024.632443683398</v>
+        <v>1184.590222112533</v>
       </c>
       <c r="D11" t="n">
-        <v>1024.632443683398</v>
+        <v>826.3245235057823</v>
       </c>
       <c r="E11" t="n">
-        <v>1024.632443683398</v>
+        <v>826.3245235057823</v>
       </c>
       <c r="F11" t="n">
-        <v>613.6465388937906</v>
+        <v>826.3245235057823</v>
       </c>
       <c r="G11" t="n">
-        <v>197.8826002418141</v>
+        <v>410.5605848538058</v>
       </c>
       <c r="H11" t="n">
         <v>118.4733379687845</v>
@@ -5041,25 +5041,25 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q11" t="n">
         <v>2474.446703561748</v>
@@ -5071,22 +5071,22 @@
         <v>2364.843483837424</v>
       </c>
       <c r="T11" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U11" t="n">
-        <v>2111.257688031502</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V11" t="n">
-        <v>1780.194800687932</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W11" t="n">
-        <v>1780.194800687932</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="X11" t="n">
-        <v>1780.194800687932</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="Y11" t="n">
-        <v>1780.194800687932</v>
+        <v>1571.190062176654</v>
       </c>
     </row>
     <row r="12">
@@ -5120,40 +5120,40 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570721</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397347</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288406</v>
+        <v>1174.689586177935</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518711</v>
+        <v>1791.185219170623</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232468</v>
+        <v>2115.87083688438</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994177</v>
+        <v>2357.126603646089</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R12" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957455</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
         <v>1769.367539915405</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.81782892870201</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="C13" t="n">
-        <v>49.81782892870201</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="D13" t="n">
-        <v>49.81782892870201</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E13" t="n">
-        <v>49.81782892870201</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F13" t="n">
-        <v>49.81782892870201</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G13" t="n">
         <v>49.81782892870201</v>
@@ -5229,22 +5229,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.469867714115</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.350082043337</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V13" t="n">
-        <v>969.6655938374497</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W13" t="n">
-        <v>680.2484238004891</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X13" t="n">
-        <v>452.2588729024718</v>
+        <v>694.2823493989266</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.4662937589417</v>
+        <v>694.2823493989266</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1379.099573286212</v>
+        <v>1392.233655089255</v>
       </c>
       <c r="C14" t="n">
-        <v>1379.099573286212</v>
+        <v>1392.233655089255</v>
       </c>
       <c r="D14" t="n">
-        <v>1379.099573286212</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.888488371226</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F14" t="n">
-        <v>838.9025835816183</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
-        <v>423.1386449296418</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L14" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P14" t="n">
         <v>2299.34732796285</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326146</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326146</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.838745326146</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="W14" t="n">
-        <v>2155.838745326146</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="X14" t="n">
-        <v>2155.838745326146</v>
+        <v>1782.372987065067</v>
       </c>
       <c r="Y14" t="n">
-        <v>1765.699413350334</v>
+        <v>1392.233655089255</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416507</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605237</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992724</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938169</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207019</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G15" t="n">
-        <v>93.2457681900575</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310208</v>
+        <v>119.1040605898642</v>
       </c>
       <c r="K15" t="n">
-        <v>583.0451988570708</v>
+        <v>560.6342506504925</v>
       </c>
       <c r="L15" t="n">
-        <v>871.0094820397335</v>
+        <v>848.5985338331552</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.61965251871</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232467</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261719</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.4714025375973</v>
+        <v>358.1149055178201</v>
       </c>
       <c r="C16" t="n">
-        <v>156.4714025375973</v>
+        <v>358.1149055178201</v>
       </c>
       <c r="D16" t="n">
-        <v>156.4714025375973</v>
+        <v>207.9982661054844</v>
       </c>
       <c r="E16" t="n">
-        <v>156.4714025375973</v>
+        <v>207.9982661054844</v>
       </c>
       <c r="F16" t="n">
-        <v>156.4714025375973</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G16" t="n">
-        <v>156.4714025375973</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490679</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611382</v>
+        <v>1123.009142904198</v>
       </c>
       <c r="V16" t="n">
-        <v>627.5370374047975</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="W16" t="n">
-        <v>338.1198673678369</v>
+        <v>578.9074846613503</v>
       </c>
       <c r="X16" t="n">
-        <v>338.1198673678369</v>
+        <v>578.9074846613503</v>
       </c>
       <c r="Y16" t="n">
-        <v>338.1198673678369</v>
+        <v>358.1149055178201</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1139.209591481948</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="C17" t="n">
-        <v>770.247074541536</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="D17" t="n">
-        <v>770.247074541536</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E17" t="n">
-        <v>770.247074541536</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F17" t="n">
-        <v>770.247074541536</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="G17" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799497</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549161</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085908</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561748</v>
@@ -5542,25 +5542,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.886707923823</v>
+        <v>2207.979841505979</v>
       </c>
       <c r="U17" t="n">
-        <v>2213.180466071444</v>
+        <v>1954.394045700058</v>
       </c>
       <c r="V17" t="n">
-        <v>1882.117578727873</v>
+        <v>1623.331158356487</v>
       </c>
       <c r="W17" t="n">
-        <v>1529.348923457759</v>
+        <v>1623.331158356487</v>
       </c>
       <c r="X17" t="n">
-        <v>1529.348923457759</v>
+        <v>1623.331158356487</v>
       </c>
       <c r="Y17" t="n">
-        <v>1139.209591481948</v>
+        <v>1233.191826380676</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K18" t="n">
-        <v>413.7755328491962</v>
+        <v>288.9454078621916</v>
       </c>
       <c r="L18" t="n">
-        <v>701.7398160318588</v>
+        <v>905.441040854879</v>
       </c>
       <c r="M18" t="n">
-        <v>1057.13742028053</v>
+        <v>1260.838645103551</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.349986510835</v>
+        <v>1640.051211333856</v>
       </c>
       <c r="O18" t="n">
-        <v>1761.035604224592</v>
+        <v>2138.281785090959</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.569511939839</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q18" t="n">
         <v>2490.891446435101</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087.315231116727</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="C19" t="n">
-        <v>918.37904818882</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="D19" t="n">
-        <v>768.2624087764842</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="E19" t="n">
-        <v>620.3493151940911</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="F19" t="n">
-        <v>473.4593676961807</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>104.1248730995696</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477639</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5703,22 +5703,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U19" t="n">
-        <v>1609.220368204927</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V19" t="n">
-        <v>1609.220368204927</v>
+        <v>842.3241731780776</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.953246844984</v>
+        <v>552.907003141117</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.963695946966</v>
+        <v>324.9174522430997</v>
       </c>
       <c r="Y19" t="n">
-        <v>1268.963695946966</v>
+        <v>104.1248730995696</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1641.70107205378</v>
+        <v>1284.210012297048</v>
       </c>
       <c r="C20" t="n">
-        <v>1303.488880017119</v>
+        <v>915.2474953566361</v>
       </c>
       <c r="D20" t="n">
-        <v>945.2231814103686</v>
+        <v>915.2474953566361</v>
       </c>
       <c r="E20" t="n">
-        <v>945.2231814103686</v>
+        <v>529.459242758392</v>
       </c>
       <c r="F20" t="n">
-        <v>534.237276620761</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G20" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
@@ -5770,34 +5770,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.891446435101</v>
+        <v>2392.012071680552</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.886707923823</v>
+        <v>2392.012071680552</v>
       </c>
       <c r="U20" t="n">
-        <v>2028.300912117902</v>
+        <v>2392.012071680552</v>
       </c>
       <c r="V20" t="n">
-        <v>2028.300912117902</v>
+        <v>2060.949184336981</v>
       </c>
       <c r="W20" t="n">
-        <v>2028.300912117902</v>
+        <v>2060.949184336981</v>
       </c>
       <c r="X20" t="n">
-        <v>2028.300912117902</v>
+        <v>2060.949184336981</v>
       </c>
       <c r="Y20" t="n">
-        <v>2028.300912117902</v>
+        <v>1670.80985236117</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310208</v>
+        <v>141.5150087964425</v>
       </c>
       <c r="K21" t="n">
-        <v>413.7755328491962</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L21" t="n">
-        <v>701.7398160318588</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M21" t="n">
-        <v>1057.13742028053</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N21" t="n">
-        <v>1436.349986510835</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O21" t="n">
-        <v>1761.035604224592</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.569511939839</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>663.6736923492481</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="C22" t="n">
-        <v>494.7375094213412</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D22" t="n">
-        <v>344.6208700090055</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E22" t="n">
-        <v>196.7077764266124</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F22" t="n">
-        <v>49.81782892870201</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
         <v>73.44728005477636</v>
@@ -5916,16 +5916,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P22" t="n">
         <v>1557.066378230431</v>
@@ -5940,22 +5940,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U22" t="n">
-        <v>1320.100582534149</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.416094328262</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="W22" t="n">
-        <v>775.9989242913009</v>
+        <v>1017.197621288077</v>
       </c>
       <c r="X22" t="n">
-        <v>775.9989242913009</v>
+        <v>789.2080703900601</v>
       </c>
       <c r="Y22" t="n">
-        <v>775.9989242913009</v>
+        <v>568.41549124653</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1568.493981887653</v>
+        <v>1164.307047032374</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.493981887653</v>
+        <v>795.344530091962</v>
       </c>
       <c r="D23" t="n">
-        <v>1568.493981887653</v>
+        <v>437.0788314852115</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.705729289409</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F23" t="n">
-        <v>771.7198244998012</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G23" t="n">
-        <v>355.9558858478247</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7538958209945</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K23" t="n">
-        <v>437.3637422189599</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939264</v>
+        <v>774.3419214131807</v>
       </c>
       <c r="M23" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.50382727579</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T23" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U23" t="n">
-        <v>2294.728395418847</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="V23" t="n">
-        <v>2294.728395418847</v>
+        <v>1853.832298601194</v>
       </c>
       <c r="W23" t="n">
-        <v>1941.959740148733</v>
+        <v>1501.06364333108</v>
       </c>
       <c r="X23" t="n">
-        <v>1568.493981887653</v>
+        <v>1501.06364333108</v>
       </c>
       <c r="Y23" t="n">
-        <v>1568.493981887653</v>
+        <v>1164.307047032374</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D24" t="n">
         <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F24" t="n">
         <v>303.6163452339654</v>
@@ -6062,49 +6062,49 @@
         <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>677.0688674499143</v>
+        <v>677.0688674499144</v>
       </c>
       <c r="L24" t="n">
-        <v>965.0331506325768</v>
+        <v>965.033150632577</v>
       </c>
       <c r="M24" t="n">
         <v>1320.430754881249</v>
       </c>
       <c r="N24" t="n">
-        <v>1699.643321111553</v>
+        <v>1699.643321111554</v>
       </c>
       <c r="O24" t="n">
-        <v>2024.32893882531</v>
+        <v>2024.328938825311</v>
       </c>
       <c r="P24" t="n">
-        <v>2430.764101559352</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>666.3082770402796</v>
+        <v>980.262523291405</v>
       </c>
       <c r="C25" t="n">
-        <v>666.3082770402796</v>
+        <v>811.3263403634982</v>
       </c>
       <c r="D25" t="n">
-        <v>516.1916376279438</v>
+        <v>661.2097009511624</v>
       </c>
       <c r="E25" t="n">
-        <v>368.2785440455507</v>
+        <v>513.2966073687693</v>
       </c>
       <c r="F25" t="n">
-        <v>368.2785440455507</v>
+        <v>366.4066598708589</v>
       </c>
       <c r="G25" t="n">
-        <v>200.2655294858693</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K25" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L25" t="n">
         <v>514.949801097701</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T25" t="n">
-        <v>1309.824493440366</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U25" t="n">
-        <v>1115.090407081827</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="V25" t="n">
-        <v>1115.090407081827</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="W25" t="n">
-        <v>1115.090407081827</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="X25" t="n">
-        <v>887.1008561838097</v>
+        <v>1382.703567265175</v>
       </c>
       <c r="Y25" t="n">
-        <v>666.3082770402796</v>
+        <v>1161.910988121645</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1254.688228114106</v>
+        <v>1787.78977230843</v>
       </c>
       <c r="C26" t="n">
-        <v>1254.688228114106</v>
+        <v>1418.827255368018</v>
       </c>
       <c r="D26" t="n">
-        <v>1254.688228114106</v>
+        <v>1060.561556761267</v>
       </c>
       <c r="E26" t="n">
-        <v>1251.361238329491</v>
+        <v>674.7733041630231</v>
       </c>
       <c r="F26" t="n">
-        <v>840.3753335398837</v>
+        <v>263.7873993734156</v>
       </c>
       <c r="G26" t="n">
-        <v>424.6113948879072</v>
+        <v>263.7873993734156</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952466</v>
       </c>
       <c r="K26" t="n">
-        <v>430.258249938214</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L26" t="n">
-        <v>846.506669368179</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6247,31 +6247,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2229.47624323941</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>1644.827560089917</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W26" t="n">
-        <v>1644.827560089917</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X26" t="n">
-        <v>1644.827560089917</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1254.688228114106</v>
+        <v>2174.389612372551</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125362</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070807</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339657</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033213</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915385</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>215.1525067097058</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204567</v>
+        <v>656.6826967703341</v>
       </c>
       <c r="L27" t="n">
-        <v>925.1390715466766</v>
+        <v>944.6469799529968</v>
       </c>
       <c r="M27" t="n">
-        <v>1280.536675795348</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.749242025653</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>1984.43485973941</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.175049765931</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6332,7 +6332,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
         <v>2234.084585692265</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.787981074992</v>
+        <v>239.3668097847887</v>
       </c>
       <c r="C28" t="n">
-        <v>919.8517981470852</v>
+        <v>239.3668097847887</v>
       </c>
       <c r="D28" t="n">
-        <v>769.7351587347495</v>
+        <v>89.25017037245294</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L28" t="n">
         <v>514.949801097701</v>
@@ -6411,25 +6411,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1559.55623157601</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.55623157601</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.436445905232</v>
+        <v>1124.481892862463</v>
       </c>
       <c r="V28" t="n">
-        <v>1270.436445905232</v>
+        <v>869.7974046565758</v>
       </c>
       <c r="W28" t="n">
-        <v>1270.436445905232</v>
+        <v>869.7974046565758</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.436445905232</v>
+        <v>641.8078537585585</v>
       </c>
       <c r="Y28" t="n">
-        <v>1270.436445905232</v>
+        <v>421.0152746150284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1288.276051449673</v>
+        <v>1164.307047032374</v>
       </c>
       <c r="C29" t="n">
-        <v>1288.276051449673</v>
+        <v>795.344530091962</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.276051449673</v>
+        <v>437.0788314852115</v>
       </c>
       <c r="E29" t="n">
-        <v>902.487798851429</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F29" t="n">
-        <v>491.5018940618215</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
         <v>182.6484035402487</v>
       </c>
       <c r="K29" t="n">
-        <v>430.258249938214</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L29" t="n">
-        <v>846.506669368179</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N29" t="n">
         <v>1686.885626999171</v>
@@ -6484,31 +6484,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750687</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2438.480981750687</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U29" t="n">
-        <v>2438.480981750687</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="V29" t="n">
-        <v>2438.480981750687</v>
+        <v>1898.413355895838</v>
       </c>
       <c r="W29" t="n">
-        <v>2438.480981750687</v>
+        <v>1545.644700625724</v>
       </c>
       <c r="X29" t="n">
-        <v>2065.015223489607</v>
+        <v>1172.178942364644</v>
       </c>
       <c r="Y29" t="n">
-        <v>1674.875891513795</v>
+        <v>1164.307047032374</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915339</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>235.5386773892861</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K30" t="n">
-        <v>634.2717485637559</v>
+        <v>552.2387424629096</v>
       </c>
       <c r="L30" t="n">
-        <v>922.2360317464185</v>
+        <v>840.2030256455723</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.63363599509</v>
+        <v>1195.600629894244</v>
       </c>
       <c r="N30" t="n">
-        <v>1656.846202225395</v>
+        <v>1574.813196124549</v>
       </c>
       <c r="O30" t="n">
         <v>1981.531819939152</v>
@@ -6569,16 +6569,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.4957343259002</v>
+        <v>962.5202064850389</v>
       </c>
       <c r="C31" t="n">
-        <v>136.4957343259002</v>
+        <v>793.584023557132</v>
       </c>
       <c r="D31" t="n">
-        <v>136.4957343259002</v>
+        <v>769.7351587347495</v>
       </c>
       <c r="E31" t="n">
-        <v>136.4957343259002</v>
+        <v>621.8220651523563</v>
       </c>
       <c r="F31" t="n">
-        <v>136.4957343259002</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696727</v>
+        <v>306.9191030947645</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L31" t="n">
         <v>514.949801097701</v>
@@ -6654,19 +6654,19 @@
         <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>901.3899717122778</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="V31" t="n">
-        <v>646.7054835063909</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="W31" t="n">
-        <v>357.2883134694303</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="X31" t="n">
-        <v>357.2883134694303</v>
+        <v>962.5202064850389</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.4957343259002</v>
+        <v>962.5202064850389</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1263.828674926796</v>
+        <v>1083.184101394987</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.828674926796</v>
+        <v>714.2215844545751</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.828674926796</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H32" t="n">
         <v>51.29057888696726</v>
@@ -6703,22 +6703,22 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131804</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044173</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P32" t="n">
-        <v>2300.820077921115</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
         <v>2483.024945800757</v>
@@ -6730,22 +6730,22 @@
         <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750686</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U32" t="n">
-        <v>2414.033605227809</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>2414.033605227809</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W32" t="n">
-        <v>2414.033605227809</v>
+        <v>1292.058904819803</v>
       </c>
       <c r="X32" t="n">
-        <v>2040.567846966729</v>
+        <v>1083.184101394987</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.428514990917</v>
+        <v>1083.184101394987</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549136</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737866</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125352</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070796</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339647</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033207</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.5386773892861</v>
+        <v>215.1525067097058</v>
       </c>
       <c r="K33" t="n">
-        <v>415.2482828074615</v>
+        <v>656.6826967703341</v>
       </c>
       <c r="L33" t="n">
-        <v>944.6469799529972</v>
+        <v>944.6469799529968</v>
       </c>
       <c r="M33" t="n">
         <v>1300.044584201669</v>
@@ -6809,7 +6809,7 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U33" t="n">
         <v>2005.992398105413</v>
@@ -6818,7 +6818,7 @@
         <v>1770.84028987367</v>
       </c>
       <c r="W33" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X33" t="n">
         <v>1308.751432939936</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.5976230578341</v>
+        <v>834.2213138837037</v>
       </c>
       <c r="C34" t="n">
-        <v>105.5976230578341</v>
+        <v>665.2851309557968</v>
       </c>
       <c r="D34" t="n">
-        <v>105.5976230578341</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="E34" t="n">
-        <v>105.5976230578341</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F34" t="n">
-        <v>105.5976230578341</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H34" t="n">
         <v>51.29057888696726</v>
@@ -6858,10 +6858,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L34" t="n">
         <v>514.949801097701</v>
@@ -6885,25 +6885,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.601197013007</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.481411342229</v>
+        <v>1062.210864781721</v>
       </c>
       <c r="V34" t="n">
-        <v>843.7969231363421</v>
+        <v>1062.210864781721</v>
       </c>
       <c r="W34" t="n">
-        <v>554.3797530993816</v>
+        <v>1062.210864781721</v>
       </c>
       <c r="X34" t="n">
-        <v>326.3902022013642</v>
+        <v>834.2213138837037</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.5976230578341</v>
+        <v>834.2213138837037</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1935.983748869799</v>
+        <v>1515.653109456103</v>
       </c>
       <c r="C35" t="n">
-        <v>1567.021231929388</v>
+        <v>1515.653109456103</v>
       </c>
       <c r="D35" t="n">
-        <v>1567.021231929388</v>
+        <v>1157.387410849352</v>
       </c>
       <c r="E35" t="n">
-        <v>1181.232979331143</v>
+        <v>1157.387410849352</v>
       </c>
       <c r="F35" t="n">
-        <v>770.247074541536</v>
+        <v>746.4015060597446</v>
       </c>
       <c r="G35" t="n">
         <v>354.4831358895594</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819828</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U35" t="n">
-        <v>2326.123080845611</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V35" t="n">
-        <v>2326.123080845611</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="W35" t="n">
-        <v>2326.123080845611</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="X35" t="n">
-        <v>2326.123080845611</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="Y35" t="n">
-        <v>1935.983748869799</v>
+        <v>1902.252949520224</v>
       </c>
     </row>
     <row r="36">
@@ -7001,46 +7001,46 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G36" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.575048691646</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M36" t="n">
-        <v>1411.972652940318</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.185219170623</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.87083688438</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646089</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S36" t="n">
         <v>2426.746110912452</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>534.6801199986835</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C37" t="n">
-        <v>365.7439370707766</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D37" t="n">
-        <v>365.7439370707766</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E37" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F37" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
         <v>73.44728005477636</v>
@@ -7101,16 +7101,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1480.925437849119</v>
+        <v>1513.469867714115</v>
       </c>
       <c r="T37" t="n">
-        <v>1480.925437849119</v>
+        <v>1513.469867714115</v>
       </c>
       <c r="U37" t="n">
-        <v>1191.80565217834</v>
+        <v>1224.350082043337</v>
       </c>
       <c r="V37" t="n">
-        <v>937.1211639724534</v>
+        <v>969.6655938374497</v>
       </c>
       <c r="W37" t="n">
-        <v>937.1211639724534</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X37" t="n">
-        <v>937.1211639724534</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y37" t="n">
-        <v>716.3285848289232</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>838.9025835816185</v>
+        <v>831.8215668424177</v>
       </c>
       <c r="C38" t="n">
-        <v>838.9025835816185</v>
+        <v>831.8215668424177</v>
       </c>
       <c r="D38" t="n">
-        <v>838.9025835816185</v>
+        <v>473.5558682356672</v>
       </c>
       <c r="E38" t="n">
-        <v>838.9025835816185</v>
+        <v>473.5558682356672</v>
       </c>
       <c r="F38" t="n">
-        <v>838.9025835816185</v>
+        <v>473.5558682356672</v>
       </c>
       <c r="G38" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549166</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O38" t="n">
         <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T38" t="n">
-        <v>2155.838745326147</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U38" t="n">
-        <v>1902.252949520225</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V38" t="n">
         <v>1571.190062176654</v>
       </c>
       <c r="W38" t="n">
-        <v>1571.190062176654</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X38" t="n">
-        <v>1197.724303915575</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="Y38" t="n">
-        <v>838.9025835816185</v>
+        <v>1218.421406906539</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992733</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938178</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9788473207028</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005841</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870201</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>675.596117491649</v>
+        <v>675.5961174916491</v>
       </c>
       <c r="L39" t="n">
-        <v>963.5604006743116</v>
+        <v>1078.985996898224</v>
       </c>
       <c r="M39" t="n">
-        <v>1318.958004922983</v>
+        <v>1434.383601146896</v>
       </c>
       <c r="N39" t="n">
-        <v>1698.170571153288</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.856188867045</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P39" t="n">
-        <v>2264.111955628754</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>993.2314762910891</v>
+        <v>493.4206000251855</v>
       </c>
       <c r="C40" t="n">
-        <v>918.37904818882</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="D40" t="n">
-        <v>768.2624087764842</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="E40" t="n">
-        <v>620.3493151940911</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="F40" t="n">
-        <v>473.4593676961807</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="G40" t="n">
-        <v>305.4463531364993</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H40" t="n">
         <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
         <v>73.44728005477636</v>
@@ -7338,16 +7338,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7362,22 +7362,22 @@
         <v>1505.443183112052</v>
       </c>
       <c r="T40" t="n">
-        <v>1282.351261961867</v>
+        <v>1299.947106630942</v>
       </c>
       <c r="U40" t="n">
-        <v>993.2314762910891</v>
+        <v>1010.827320960163</v>
       </c>
       <c r="V40" t="n">
-        <v>993.2314762910891</v>
+        <v>1010.827320960163</v>
       </c>
       <c r="W40" t="n">
-        <v>993.2314762910891</v>
+        <v>721.4101509232029</v>
       </c>
       <c r="X40" t="n">
-        <v>993.2314762910891</v>
+        <v>493.4206000251855</v>
       </c>
       <c r="Y40" t="n">
-        <v>993.2314762910891</v>
+        <v>493.4206000251855</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2362.904956516632</v>
+        <v>1177.889414468298</v>
       </c>
       <c r="C41" t="n">
-        <v>1993.942439576221</v>
+        <v>808.926897527886</v>
       </c>
       <c r="D41" t="n">
-        <v>1635.67674096947</v>
+        <v>808.926897527886</v>
       </c>
       <c r="E41" t="n">
-        <v>1249.888488371226</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="F41" t="n">
-        <v>838.9025835816184</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="G41" t="n">
-        <v>423.1386449296419</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H41" t="n">
         <v>118.4733379687844</v>
@@ -7411,7 +7411,7 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819835</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K41" t="n">
         <v>428.7854999799488</v>
@@ -7432,31 +7432,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435099</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435099</v>
+        <v>1937.955012793499</v>
       </c>
       <c r="W41" t="n">
-        <v>2490.891446435099</v>
+        <v>1937.955012793499</v>
       </c>
       <c r="X41" t="n">
-        <v>2490.891446435099</v>
+        <v>1564.489254532419</v>
       </c>
       <c r="Y41" t="n">
-        <v>2490.891446435099</v>
+        <v>1564.489254532419</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870199</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621914</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448541</v>
+        <v>817.8879681542085</v>
       </c>
       <c r="M42" t="n">
-        <v>932.3072952935256</v>
+        <v>1434.383601146896</v>
       </c>
       <c r="N42" t="n">
-        <v>1498.318026423663</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O42" t="n">
-        <v>1823.00364413742</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P42" t="n">
         <v>2379.537551852667</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
         <v>2354.581362957454</v>
@@ -7523,19 +7523,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V42" t="n">
         <v>1697.202791960407</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>332.1144239975864</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="C43" t="n">
-        <v>332.1144239975864</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D43" t="n">
-        <v>332.1144239975864</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
-        <v>196.7077764266123</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G43" t="n">
         <v>49.81782892870199</v>
@@ -7569,22 +7569,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1443.080391480101</v>
       </c>
       <c r="T43" t="n">
-        <v>1386.128447054742</v>
+        <v>1219.988470329916</v>
       </c>
       <c r="U43" t="n">
-        <v>1097.008661383964</v>
+        <v>930.8686846591378</v>
       </c>
       <c r="V43" t="n">
-        <v>842.3241731780771</v>
+        <v>676.1841964532509</v>
       </c>
       <c r="W43" t="n">
-        <v>552.9070031411165</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="X43" t="n">
-        <v>552.9070031411165</v>
+        <v>386.7670264162903</v>
       </c>
       <c r="Y43" t="n">
-        <v>332.1144239975864</v>
+        <v>386.7670264162903</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1219.912802317494</v>
+        <v>1631.318441908942</v>
       </c>
       <c r="C44" t="n">
-        <v>1219.912802317494</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D44" t="n">
-        <v>1219.912802317494</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E44" t="n">
-        <v>834.1245497192494</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1386449296419</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G44" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870199</v>
@@ -7651,13 +7651,13 @@
         <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
         <v>1613.248129085907</v>
@@ -7669,31 +7669,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837422</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="T44" t="n">
-        <v>2191.161325531108</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="U44" t="n">
-        <v>1937.575529725186</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="V44" t="n">
-        <v>1606.512642381615</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="W44" t="n">
-        <v>1606.512642381615</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="X44" t="n">
-        <v>1606.512642381615</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="Y44" t="n">
-        <v>1606.512642381615</v>
+        <v>2017.918281973064</v>
       </c>
     </row>
     <row r="45">
@@ -7703,55 +7703,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>71.33540390088821</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964425</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504917</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331543</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
         <v>2354.581362957454</v>
@@ -7760,7 +7760,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V45" t="n">
         <v>1697.202791960407</v>
@@ -7769,10 +7769,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>918.37904818882</v>
+        <v>619.2874581775822</v>
       </c>
       <c r="C46" t="n">
-        <v>918.37904818882</v>
+        <v>619.2874581775822</v>
       </c>
       <c r="D46" t="n">
-        <v>768.2624087764842</v>
+        <v>619.2874581775822</v>
       </c>
       <c r="E46" t="n">
-        <v>620.3493151940911</v>
+        <v>471.374364595189</v>
       </c>
       <c r="F46" t="n">
-        <v>473.4593676961807</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="G46" t="n">
-        <v>305.4463531364993</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H46" t="n">
         <v>156.4714025375973</v>
@@ -7806,22 +7806,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7836,22 +7836,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U46" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="V46" t="n">
-        <v>1609.220368204927</v>
+        <v>1131.443958848856</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.803198167966</v>
+        <v>842.0267888118949</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.803198167966</v>
+        <v>619.2874581775822</v>
       </c>
       <c r="Y46" t="n">
-        <v>1099.010619024436</v>
+        <v>619.2874581775822</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140161</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>244.8305968529388</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>239.6798654165481</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>9.967937521058715</v>
       </c>
       <c r="K15" t="n">
-        <v>170.9794606140147</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>331.8498482929544</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>175.2979353973195</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.59397970992842</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184487</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.59397970992842</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.177264930046306</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>7.177264930045652</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>166.8478747195277</v>
+        <v>189.4851961403136</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302826</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>72.8936848030288</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.4989437448732</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712701</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>229.7822457220321</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>72.89368480302824</v>
       </c>
       <c r="L29" t="n">
-        <v>72.8936848030288</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>221.235823996257</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.86162232408628</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7.177264930045339</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.177264930045709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>105.4989437448732</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>243.8731454170436</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140147</v>
       </c>
       <c r="L36" t="n">
-        <v>93.95418991649973</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>116.591511337285</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.5915113372863</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053379</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>117.321365780151</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N42" t="n">
-        <v>188.6850150503358</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184487</v>
       </c>
       <c r="K45" t="n">
-        <v>148.3421391932279</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>223.0034842409495</v>
+        <v>12.45227947507783</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>71.4431004754473</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
@@ -23469,7 +23469,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>126.0680064527793</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>144.8102462455866</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>226.1040888011655</v>
       </c>
       <c r="E14" t="n">
-        <v>254.0113960064252</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>50.14070125298387</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>136.3076163108296</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>85.22067406005073</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>51.61968521803419</v>
       </c>
       <c r="U17" t="n">
-        <v>183.0307584140068</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.44310047544725</v>
+        <v>71.4431004754468</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>51.82306414364746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.3785481902476</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>30.44282165471293</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>26.89690196469822</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.44310047544728</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.630000559305</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
@@ -24180,22 +24180,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>207.5100686416629</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>190.8620855338052</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>52.84890832033449</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.4402032057511</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>93.44184231911697</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>378.6366501854935</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>91.24680160966508</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>108.8539670759384</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>144.4950075123415</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>43.76605119203271</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>378.4447622771056</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>125.0050968440536</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>81.97978052954099</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>226.8470350902138</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>162.9450452879012</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>112.5689106849264</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>105.5870378728063</v>
@@ -25125,25 +25125,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>159.2126841387486</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>23.60711279697335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.7167388859678</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.44310047544725</v>
+        <v>71.44310047544815</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
@@ -25362,7 +25362,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>68.10854418140183</v>
+        <v>100.3275297477477</v>
       </c>
       <c r="T37" t="n">
         <v>220.8610019386828</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>60.07459430124271</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.00443552543703</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.14070125298299</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>93.14291727738146</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>17.41988622238316</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>256.0272166441985</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>156.1826099845128</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298432</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>12.38138155130483</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25836,7 +25836,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>30.64194827607346</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>42.78198881033849</v>
       </c>
       <c r="T44" t="n">
-        <v>34.96935440291287</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>71.44310047544826</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>71.44310047544869</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.006725054677474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>5.197718061067548</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651394.7606748159</v>
+        <v>651394.7606748157</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651394.7606748156</v>
+        <v>651394.760674816</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651394.7606748159</v>
+        <v>651394.760674816</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651394.7606748157</v>
+        <v>651394.7606748156</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664103.8336641086</v>
+        <v>664103.8336641084</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664103.8336641083</v>
+        <v>664103.8336641085</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651394.7606748159</v>
+        <v>651394.7606748156</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
+        <v>573493.4371019271</v>
+      </c>
+      <c r="D2" t="n">
         <v>573493.437101927</v>
-      </c>
-      <c r="D2" t="n">
-        <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
         <v>421649.7197352588</v>
       </c>
       <c r="F2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352587</v>
       </c>
       <c r="G2" t="n">
         <v>421649.7197352588</v>
       </c>
       <c r="H2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352586</v>
       </c>
       <c r="I2" t="n">
         <v>427750.960515862</v>
@@ -26340,22 +26340,22 @@
         <v>427750.960515862</v>
       </c>
       <c r="K2" t="n">
-        <v>427750.9605158622</v>
+        <v>427750.960515862</v>
       </c>
       <c r="L2" t="n">
-        <v>427750.960515862</v>
+        <v>427750.9605158621</v>
       </c>
       <c r="M2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352587</v>
       </c>
       <c r="N2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352587</v>
       </c>
       <c r="O2" t="n">
-        <v>421649.7197352585</v>
+        <v>421649.7197352586</v>
       </c>
       <c r="P2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352587</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648196</v>
+        <v>4895.439270648227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.338246859</v>
+        <v>150597.3382468586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>19428.11537840986</v>
       </c>
       <c r="F4" t="n">
+        <v>19428.11537840985</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19428.11537840986</v>
+      </c>
+      <c r="H4" t="n">
         <v>19428.11537840984</v>
       </c>
-      <c r="G4" t="n">
-        <v>19428.11537840987</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19428.11537840987</v>
-      </c>
       <c r="I4" t="n">
-        <v>22998.66674111661</v>
+        <v>22998.66674111657</v>
       </c>
       <c r="J4" t="n">
-        <v>22998.66674111661</v>
+        <v>22998.66674111657</v>
       </c>
       <c r="K4" t="n">
-        <v>22998.66674111661</v>
+        <v>22998.66674111657</v>
       </c>
       <c r="L4" t="n">
-        <v>22998.66674111658</v>
+        <v>22998.66674111655</v>
       </c>
       <c r="M4" t="n">
-        <v>19428.11537840987</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="N4" t="n">
-        <v>19428.11537840986</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="O4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="P4" t="n">
         <v>19428.11537840984</v>
@@ -26481,10 +26481,10 @@
         <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425675</v>
@@ -26508,10 +26508,10 @@
         <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108923.1918805699</v>
+        <v>108962.914081383</v>
       </c>
       <c r="C6" t="n">
-        <v>108923.19188057</v>
+        <v>108962.9140813831</v>
       </c>
       <c r="D6" t="n">
-        <v>108923.1918805699</v>
+        <v>108962.914081383</v>
       </c>
       <c r="E6" t="n">
-        <v>-585803.5112081654</v>
+        <v>-580883.0980919952</v>
       </c>
       <c r="F6" t="n">
-        <v>338848.0681679586</v>
+        <v>343768.4812841287</v>
       </c>
       <c r="G6" t="n">
-        <v>338848.0681679588</v>
+        <v>343768.4812841288</v>
       </c>
       <c r="H6" t="n">
-        <v>338848.0681679586</v>
+        <v>343768.4812841287</v>
       </c>
       <c r="I6" t="n">
-        <v>335581.9298033754</v>
+        <v>340306.2316087405</v>
       </c>
       <c r="J6" t="n">
-        <v>340477.3690740236</v>
+        <v>345201.6708793888</v>
       </c>
       <c r="K6" t="n">
-        <v>340477.3690740237</v>
+        <v>345201.6708793888</v>
       </c>
       <c r="L6" t="n">
-        <v>340477.3690740236</v>
+        <v>345201.6708793889</v>
       </c>
       <c r="M6" t="n">
-        <v>188250.7299210996</v>
+        <v>193171.1430372702</v>
       </c>
       <c r="N6" t="n">
-        <v>338848.0681679586</v>
+        <v>343768.4812841287</v>
       </c>
       <c r="O6" t="n">
-        <v>338848.0681679584</v>
+        <v>343768.4812841287</v>
       </c>
       <c r="P6" t="n">
-        <v>338848.0681679586</v>
+        <v>343768.4812841288</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="G4" t="n">
+        <v>622.7228616087752</v>
+      </c>
+      <c r="H4" t="n">
         <v>622.7228616087749</v>
       </c>
-      <c r="G4" t="n">
-        <v>622.7228616087751</v>
-      </c>
-      <c r="H4" t="n">
-        <v>622.7228616087751</v>
-      </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.197460381959111e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831573</v>
+        <v>18.40937447831584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304594</v>
+        <v>604.3134871304577</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H17" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
@@ -32238,7 +32238,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L17" t="n">
         <v>583.325679086115</v>
@@ -32247,22 +32247,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O17" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q17" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796694</v>
@@ -32317,22 +32317,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32341,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L19" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268526</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
@@ -32475,7 +32475,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L20" t="n">
         <v>583.325679086115</v>
@@ -32484,22 +32484,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q20" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796694</v>
@@ -32554,22 +32554,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32578,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L22" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268526</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
@@ -32712,7 +32712,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L23" t="n">
         <v>583.325679086115</v>
@@ -32721,22 +32721,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O23" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q23" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796694</v>
@@ -32791,22 +32791,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32815,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L25" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P25" t="n">
         <v>200.5390467268526</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
@@ -32949,7 +32949,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L26" t="n">
         <v>583.325679086115</v>
@@ -32958,22 +32958,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O26" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q26" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796694</v>
@@ -33028,22 +33028,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33052,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L28" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P28" t="n">
         <v>200.5390467268526</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
@@ -33186,7 +33186,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L29" t="n">
         <v>583.325679086115</v>
@@ -33195,22 +33195,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q29" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796694</v>
@@ -33265,22 +33265,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33289,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L31" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P31" t="n">
         <v>200.5390467268526</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
@@ -33423,7 +33423,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L32" t="n">
         <v>583.325679086115</v>
@@ -33432,22 +33432,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q32" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796694</v>
@@ -33502,22 +33502,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33526,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L34" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P34" t="n">
         <v>200.5390467268526</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
@@ -33660,7 +33660,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L35" t="n">
         <v>583.325679086115</v>
@@ -33669,22 +33669,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q35" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796694</v>
@@ -33739,22 +33739,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33763,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L37" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P37" t="n">
         <v>200.5390467268526</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
@@ -33897,7 +33897,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L38" t="n">
         <v>583.325679086115</v>
@@ -33906,22 +33906,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q38" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796694</v>
@@ -33976,22 +33976,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -34000,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L40" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P40" t="n">
         <v>200.5390467268526</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34237,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L43" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861144</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34474,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K12" t="n">
-        <v>352.504314571769</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390623</v>
+        <v>603.818075892001</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922271</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O12" t="n">
         <v>327.9652704179364</v>
@@ -35509,10 +35509,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063827</v>
+        <v>69.98609258703253</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5043145717677</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158209</v>
@@ -35749,7 +35749,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L17" t="n">
         <v>347.5592641161277</v>
@@ -35895,19 +35895,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O17" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P17" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K18" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>622.7228616087752</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>503.263205815256</v>
       </c>
       <c r="P18" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>175.072661106325</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36050,7 +36050,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N19" t="n">
         <v>297.8659196396851</v>
@@ -36062,7 +36062,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161277</v>
@@ -36132,19 +36132,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O20" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781868</v>
       </c>
       <c r="K21" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P21" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.072661106325</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36287,7 +36287,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N22" t="n">
         <v>297.8659196396851</v>
@@ -36299,7 +36299,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.8619362969972</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161277</v>
@@ -36369,19 +36369,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O23" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605025</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020745</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K24" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P24" t="n">
-        <v>410.5405684182238</v>
+        <v>433.1778898390097</v>
       </c>
       <c r="Q24" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36524,7 +36524,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N25" t="n">
         <v>297.8659196396851</v>
@@ -36536,7 +36536,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L26" t="n">
-        <v>420.4529489191565</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O26" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597379</v>
+        <v>165.517098810847</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870909</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P27" t="n">
-        <v>473.4749394207282</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36761,7 +36761,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N28" t="n">
         <v>297.8659196396851</v>
@@ -36773,7 +36773,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575408</v>
+        <v>323.0046407605691</v>
       </c>
       <c r="L29" t="n">
-        <v>420.4529489191565</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O29" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K30" t="n">
-        <v>402.76067795401</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>410.8268927420228</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
@@ -36934,7 +36934,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36998,7 +36998,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N31" t="n">
         <v>297.8659196396851</v>
@@ -37010,7 +37010,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161277</v>
+        <v>354.7365290461731</v>
       </c>
       <c r="M32" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O32" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q32" t="n">
-        <v>184.0453210905482</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020745</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063826</v>
+        <v>165.517098810847</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.7461587328644</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37235,7 +37235,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N34" t="n">
         <v>297.8659196396851</v>
@@ -37247,7 +37247,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669503</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161277</v>
@@ -37317,19 +37317,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O35" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717677</v>
       </c>
       <c r="L36" t="n">
-        <v>384.8272032323205</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P36" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37472,7 +37472,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N37" t="n">
         <v>297.8659196396851</v>
@@ -37484,7 +37484,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161277</v>
@@ -37554,19 +37554,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O38" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K39" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>407.4645246531059</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>229.0701927336829</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37709,7 +37709,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N40" t="n">
         <v>297.8659196396851</v>
@@ -37721,7 +37721,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.684671366951</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K42" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>408.1943790959719</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390622</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N42" t="n">
-        <v>571.7280112425628</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P42" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
         <v>112.4786813963966</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37946,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N43" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161272</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781868</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8669931509808</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P45" t="n">
         <v>243.6926936986961</v>
@@ -38119,7 +38119,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38183,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
